--- a/dashboard_loader/health_avoidable_deaths_uploader/health_avoidable_deaths.xlsx
+++ b/dashboard_loader/health_avoidable_deaths_uploader/health_avoidable_deaths.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Description" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t xml:space="preserve">Potentially avoidable deaths</t>
   </si>
@@ -92,10 +92,7 @@
     <t xml:space="preserve">Potentially avoidable deaths include those that are potentially preventable through preventive and primary healthcare and health promotion, and deaths that are potentially treatable through appropriate interventions.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nationally, there were 107.7 avoidable deaths per 100,000 people in 2015, down from 125.4 per 100,000 in 2007. All jurisdictions have shown a decrease.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queensland, Tasmania and the Northern Territory continue to have higher rates than the national rate, but all jurisdictions have shown improvement since 2007. The Australian Capital Territory’s rate is the lowest.</t>
+    <t xml:space="preserve">Nationally, there were 105.2 avoidable deaths per 100,000 people in 2016, down from 125.4 per 100,000 in 2007. Victoria and the Australian Capital Territory’s rates continue to be lower than the national rate.</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -104,34 +101,24 @@
     <t xml:space="preserve">Age-standardised death rates enable the comparison of death rates between populations with different age structures by relating them to a standard population. The current ABS standard population is all persons in the Australian population at 30 June 2001.</t>
   </si>
   <si>
-    <t xml:space="preserve">Historical data may differ from previous reports as nationally agreed revisions to the definition of potentially avoidable deaths in 2014 have been applied.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potentially avoidable deaths refer to deaths from certain conditions that are considered avoidable given timely and effective health care. Avoidable mortality measures premature deaths (for those aged 0–74 years) for specific conditions defined and agreed to nationally by NHISSC and endorsed by NHIPPC (August 2014). These include external events in which the health system has no role — for example, while the response of the health system may prevent death following an accidental fall, it is not a factor when an accidental fall causes immediate death.</t>
+    <t xml:space="preserve">Potentially avoidable deaths refer to deaths from certain conditions that are considered avoidable given timely and effective health care. Avoidable mortality measures premature deaths (for those aged 0–74 years) for specific conditions defined and agreed to nationally by NHISSC and endorsed by NHIPPC (August 2014). These include external events in which the health system has no role — eg. while the response of the health system may prevent death following an accidental fall, it is not a factor when an accidental fall causes immediate death.</t>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ABS (unpublished) Causes of Death, Australia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Council of Australian Governments (COAG), 2011, National Healthcare Agreement.</t>
+    <t xml:space="preserve">ABS (unpublished) Causes of Death, Australia; SCRGSP 2018, Report on Government Services, table EA.26.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -154,87 +141,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -242,13 +148,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,74 +172,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -342,7 +200,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,55 +224,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,140 +234,64 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -566,20 +300,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="111.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +326,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -629,7 +361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2007</v>
       </c>
@@ -664,7 +396,7 @@
         <v>125.4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2007</v>
       </c>
@@ -699,7 +431,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>2007</v>
       </c>
@@ -734,217 +466,217 @@
         <v>0.637958532695375</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>2012</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>105.6</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>121.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
+      <c r="C6" s="3" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>108</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>108.8</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>131.8</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>83.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>240.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>107.8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="3" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>240</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>108.3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>2012</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="3" t="n">
         <v>2.3</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="3" t="n">
         <v>3.2</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H7" s="5" t="n">
+      <c r="G7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3" t="n">
         <v>9.6</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="3" t="n">
         <v>22.6</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="3" t="n">
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>2012</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="3" t="n">
         <v>2.3</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="3" t="n">
         <v>3.2</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="3" t="n">
         <v>4.9</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="3" t="n">
         <v>9.6</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="3" t="n">
         <v>22.6</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="3" t="n">
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>2013</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="D9" s="4" t="n">
+      <c r="C9" s="3" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="D9" s="3" t="n">
         <v>92.3</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>117.6</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>109.4</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="E9" s="3" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="I9" s="3" t="n">
         <v>98.6</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="3" t="n">
         <v>234.7</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="3" t="n">
         <v>106.9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>2013</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="3" t="n">
         <v>2.3</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="3" t="n">
         <v>3.1</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="3" t="n">
         <v>4.1</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="3" t="n">
         <v>4.9</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="3" t="n">
         <v>9.5</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="3" t="n">
         <v>10.5</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="3" t="n">
         <v>22.3</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="3" t="n">
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>2013</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="3" t="n">
         <v>2.3</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="3" t="n">
         <v>3.1</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="3" t="n">
         <v>4.1</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="3" t="n">
         <v>4.9</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="3" t="n">
         <v>9.5</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="3" t="n">
         <v>10.5</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="3" t="n">
         <v>22.3</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="3" t="n">
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>2015</v>
       </c>
@@ -979,7 +711,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>2015</v>
       </c>
@@ -1014,7 +746,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>2015</v>
       </c>
@@ -1047,6 +779,111 @@
       </c>
       <c r="K14" s="3" t="n">
         <v>0.603528319405757</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>200.7</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>1.08554059921841</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>1.27285841571556</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1.33416757144697</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1.88093670647983</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>2.25160486729903</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>3.55020056803209</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>5.81579782171936</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>5.03340349592752</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>0.630480329013735</v>
       </c>
     </row>
   </sheetData>
@@ -1065,107 +902,88 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="9" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="40.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
